--- a/Thesis_project/01_data-input/National/ME/NACE_Employment_ME.xlsx
+++ b/Thesis_project/01_data-input/National/ME/NACE_Employment_ME.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eliad\Desktop\Edu\WU Wien\Thesis\Master-Thesis\Thesis_project\01_data-input\National\ME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97335EA8-4ABA-4B56-9122-0D0391A9FA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C844B7-769B-4D65-A7D0-C371C8D503C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-4710" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="17">
   <si>
     <t>EMP_NACE_A</t>
   </si>
@@ -84,6 +84,9 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>EMP_NACE_L-M-N</t>
   </si>
 </sst>
 </file>
@@ -419,19 +422,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="13" width="15.85546875" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="14" width="15.85546875" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -465,14 +468,17 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -507,13 +513,17 @@
         <v>10</v>
       </c>
       <c r="L2" s="1">
+        <f>SUM(J2:K2)</f>
+        <v>4608</v>
+      </c>
+      <c r="M2" s="1">
         <v>33395</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N2" s="1">
         <v>7252</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -548,13 +558,17 @@
         <v>10</v>
       </c>
       <c r="L3" s="1">
+        <f t="shared" ref="L3:L21" si="0">SUM(J3:K3)</f>
+        <v>4620</v>
+      </c>
+      <c r="M3" s="1">
         <v>33479</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N3" s="1">
         <v>7270</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -589,13 +603,17 @@
         <v>10</v>
       </c>
       <c r="L4" s="1">
+        <f t="shared" si="0"/>
+        <v>3904</v>
+      </c>
+      <c r="M4" s="1">
         <v>32479</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N4" s="1">
         <v>6845</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
@@ -630,13 +648,17 @@
         <v>10</v>
       </c>
       <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>4238</v>
+      </c>
+      <c r="M5" s="1">
         <v>32481</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N5" s="1">
         <v>7224</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -671,13 +693,17 @@
         <v>10</v>
       </c>
       <c r="L6" s="1">
+        <f t="shared" si="0"/>
+        <v>4699</v>
+      </c>
+      <c r="M6" s="1">
         <v>34040</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N6" s="1">
         <v>7392</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -712,13 +738,17 @@
         <v>10</v>
       </c>
       <c r="L7" s="1">
+        <f t="shared" si="0"/>
+        <v>5067</v>
+      </c>
+      <c r="M7" s="1">
         <v>33698</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N7" s="1">
         <v>7924</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -753,13 +783,17 @@
         <v>10</v>
       </c>
       <c r="L8" s="1">
+        <f t="shared" si="0"/>
+        <v>5905</v>
+      </c>
+      <c r="M8" s="1">
         <v>35203</v>
       </c>
-      <c r="M8" s="1">
+      <c r="N8" s="1">
         <v>8489</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -794,13 +828,17 @@
         <v>10</v>
       </c>
       <c r="L9" s="1">
+        <f t="shared" si="0"/>
+        <v>5354</v>
+      </c>
+      <c r="M9" s="1">
         <v>42266</v>
       </c>
-      <c r="M9" s="1">
+      <c r="N9" s="1">
         <v>7481</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -835,13 +873,17 @@
         <v>10</v>
       </c>
       <c r="L10" s="1">
+        <f t="shared" si="0"/>
+        <v>5631</v>
+      </c>
+      <c r="M10" s="1">
         <v>43891</v>
       </c>
-      <c r="M10" s="1">
+      <c r="N10" s="1">
         <v>8221</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -876,13 +918,17 @@
         <v>10</v>
       </c>
       <c r="L11" s="1">
+        <f t="shared" si="0"/>
+        <v>7356</v>
+      </c>
+      <c r="M11" s="1">
         <v>44090</v>
       </c>
-      <c r="M11" s="1">
+      <c r="N11" s="1">
         <v>9031</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -917,13 +963,17 @@
         <v>9208</v>
       </c>
       <c r="L12" s="1">
+        <f t="shared" si="0"/>
+        <v>10434</v>
+      </c>
+      <c r="M12" s="1">
         <v>42020</v>
       </c>
-      <c r="M12" s="1">
+      <c r="N12" s="1">
         <v>7593</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>11</v>
       </c>
@@ -958,13 +1008,17 @@
         <v>9717</v>
       </c>
       <c r="L13" s="1">
+        <f t="shared" si="0"/>
+        <v>10988</v>
+      </c>
+      <c r="M13" s="1">
         <v>41983</v>
       </c>
-      <c r="M13" s="1">
+      <c r="N13" s="1">
         <v>7667</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>11</v>
       </c>
@@ -999,13 +1053,17 @@
         <v>10666</v>
       </c>
       <c r="L14" s="1">
+        <f t="shared" si="0"/>
+        <v>12001</v>
+      </c>
+      <c r="M14" s="1">
         <v>43831</v>
       </c>
-      <c r="M14" s="1">
+      <c r="N14" s="1">
         <v>7744</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1040,13 +1098,17 @@
         <v>12165</v>
       </c>
       <c r="L15" s="1">
+        <f t="shared" si="0"/>
+        <v>13565</v>
+      </c>
+      <c r="M15" s="1">
         <v>44792</v>
       </c>
-      <c r="M15" s="1">
+      <c r="N15" s="1">
         <v>8248</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>11</v>
       </c>
@@ -1081,13 +1143,17 @@
         <v>15216</v>
       </c>
       <c r="L16" s="1">
+        <f t="shared" si="0"/>
+        <v>16831</v>
+      </c>
+      <c r="M16" s="1">
         <v>45654</v>
       </c>
-      <c r="M16" s="1">
+      <c r="N16" s="1">
         <v>8592</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
@@ -1122,13 +1188,17 @@
         <v>15757</v>
       </c>
       <c r="L17" s="1">
+        <f t="shared" si="0"/>
+        <v>17475</v>
+      </c>
+      <c r="M17" s="1">
         <v>46097</v>
       </c>
-      <c r="M17" s="1">
+      <c r="N17" s="1">
         <v>9088</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -1163,13 +1233,17 @@
         <v>16497</v>
       </c>
       <c r="L18" s="1">
+        <f t="shared" si="0"/>
+        <v>18147</v>
+      </c>
+      <c r="M18" s="1">
         <v>46588</v>
       </c>
-      <c r="M18" s="1">
+      <c r="N18" s="1">
         <v>9264</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -1204,13 +1278,17 @@
         <v>18197</v>
       </c>
       <c r="L19" s="1">
+        <f t="shared" si="0"/>
+        <v>19761</v>
+      </c>
+      <c r="M19" s="1">
         <v>47609</v>
       </c>
-      <c r="M19" s="1">
+      <c r="N19" s="1">
         <v>9116</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>11</v>
       </c>
@@ -1245,13 +1323,17 @@
         <v>20146</v>
       </c>
       <c r="L20" s="1">
+        <f t="shared" si="0"/>
+        <v>21754</v>
+      </c>
+      <c r="M20" s="1">
         <v>48812</v>
       </c>
-      <c r="M20" s="1">
+      <c r="N20" s="1">
         <v>9555</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>11</v>
       </c>
@@ -1286,9 +1368,13 @@
         <v>22962</v>
       </c>
       <c r="L21" s="1">
+        <f t="shared" si="0"/>
+        <v>24705</v>
+      </c>
+      <c r="M21" s="1">
         <v>49577</v>
       </c>
-      <c r="M21" s="1">
+      <c r="N21" s="1">
         <v>10469</v>
       </c>
     </row>
